--- a/examples/kinetic_metabolic_model/template.xlsx
+++ b/examples/kinetic_metabolic_model/template.xlsx
@@ -16,7 +16,7 @@
     <sheet name="!!Regulations" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$2</definedName>
@@ -28,613 +28,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an chemical formula (e.g. "H2O").</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a reaction equation (e.g. "A[c] &lt;=&gt; B[e]", "[c]: A &lt;=&gt; B").</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select "True" or "False".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a comma-separated list of values or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 4294967295 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 4294967295 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a comma-separated list of values or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a comma-separated list of values or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a comma-separated list of values or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select "True" or "False".</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.
-Value must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 4294967295 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 4294967295 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter an integer.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Reactions:A" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Metabolites:A" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select a value from "!!Compartments:A" or blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select one of "activation", "competitive inhibition", "mixed inhibition".</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="180">
   <si>
@@ -656,10 +49,10 @@
     <t>'!!Regulations'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-03 17:55:55'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-08-03 17:26:16'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -692,7 +85,7 @@
     <t>Regulations</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -1058,19 +451,19 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Formula</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -1136,7 +529,7 @@
     <t>!Coupled to biomass</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -1163,7 +556,7 @@
     <t>!PubMed id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -1182,19 +575,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1242,16 +629,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1563,81 +949,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1658,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1672,1074 +1058,1119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A39" s="4" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A41" s="4" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A44" s="4" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A45" s="4" t="s">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A46" s="4" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A47" s="4" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A48" s="4" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A49" s="4" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A53" s="4" t="s">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="B59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="B60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A56" s="4" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G56"/>
+  <autoFilter ref="A2:G61"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
-    <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
-    <hyperlink ref="A10" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A34" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A44" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A7" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
+    <hyperlink ref="A12" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
+    <hyperlink ref="A37" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
+    <hyperlink ref="A48" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2761,58 +2192,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -2826,7 +2257,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2846,72 +2276,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -2926,7 +2356,6 @@
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formula" error="Value must be an chemical formula (e.g. &quot;H2O&quot;)." promptTitle="Formula" prompt="Enter an chemical formula (e.g. &quot;H2O&quot;)." sqref="C3:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2946,352 +2375,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="15.01" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -3364,7 +2793,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3384,156 +2812,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.01" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -3568,7 +2996,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3588,86 +3015,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
@@ -3687,6 +3114,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/kinetic_metabolic_model/template.xlsx
+++ b/examples/kinetic_metabolic_model/template.xlsx
@@ -12,8 +12,8 @@
     <sheet name="!!Compartments" sheetId="3" r:id="rId3"/>
     <sheet name="!!Metabolites" sheetId="4" r:id="rId4"/>
     <sheet name="!!Reactions" sheetId="5" r:id="rId5"/>
-    <sheet name="!!References" sheetId="6" r:id="rId6"/>
-    <sheet name="!!Regulations" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Regulations" sheetId="6" r:id="rId6"/>
+    <sheet name="!!References" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$61</definedName>
@@ -21,8 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reactions'!$A$2:$W$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!References'!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Regulations'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!References'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Regulations'!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -43,16 +43,16 @@
     <t>'!!Reactions'!A1</t>
   </si>
   <si>
+    <t>'!!Regulations'!A1</t>
+  </si>
+  <si>
     <t>'!!References'!A1</t>
   </si>
   <si>
-    <t>'!!Regulations'!A1</t>
-  </si>
-  <si>
-    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-08-03 17:26:16'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.14' date='2020-12-13 14:11:50'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -79,13 +79,13 @@
     <t>Reactions</t>
   </si>
   <si>
+    <t>Regulations</t>
+  </si>
+  <si>
     <t>References</t>
   </si>
   <si>
-    <t>Regulations</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -304,6 +304,42 @@
     <t>Subsystem</t>
   </si>
   <si>
+    <t>Regulation</t>
+  </si>
+  <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t>ManyToOne('Reaction', related_name='regulations')</t>
+  </si>
+  <si>
+    <t>regulator</t>
+  </si>
+  <si>
+    <t>ManyToOne('Metabolite', related_name='regulated_reactions')</t>
+  </si>
+  <si>
+    <t>Regulator</t>
+  </si>
+  <si>
+    <t>regulator_compartment</t>
+  </si>
+  <si>
+    <t>ManyToOne('Compartment', related_name='regulated_reactions')</t>
+  </si>
+  <si>
+    <t>Regulator compartment</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Enum([('activation', 1), ('competitive inhibition', 2), ('mixed inhibition', 3)])</t>
+  </si>
+  <si>
+    <t>Type [Ref2, Ref3]</t>
+  </si>
+  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -358,42 +394,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Regulation</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t>ManyToOne('Reaction', related_name='regulations')</t>
-  </si>
-  <si>
-    <t>regulator</t>
-  </si>
-  <si>
-    <t>ManyToOne('Metabolite', related_name='regulated_reactions')</t>
-  </si>
-  <si>
-    <t>Regulator</t>
-  </si>
-  <si>
-    <t>regulator_compartment</t>
-  </si>
-  <si>
-    <t>ManyToOne('Compartment', related_name='regulated_reactions')</t>
-  </si>
-  <si>
-    <t>Regulator compartment</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Enum([('activation', 1), ('competitive inhibition', 2), ('mixed inhibition', 3)])</t>
-  </si>
-  <si>
-    <t>Type [Ref2, Ref3]</t>
-  </si>
-  <si>
     <t>Kinetics</t>
   </si>
   <si>
@@ -451,19 +451,19 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Formula</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -529,7 +529,22 @@
     <t>!Coupled to biomass</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+  </si>
+  <si>
+    <t>!Reaction</t>
+  </si>
+  <si>
+    <t>!Regulator</t>
+  </si>
+  <si>
+    <t>!Regulator compartment</t>
+  </si>
+  <si>
+    <t>!Type [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -554,21 +569,6 @@
   </si>
   <si>
     <t>!PubMed id</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-08-03 17:26:16' objTablesVersion='1.0.9'</t>
-  </si>
-  <si>
-    <t>!Reaction</t>
-  </si>
-  <si>
-    <t>!Regulator</t>
-  </si>
-  <si>
-    <t>!Regulator compartment</t>
-  </si>
-  <si>
-    <t>!Type [Ref2, Ref3]</t>
   </si>
 </sst>
 </file>
@@ -1028,15 +1028,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C9"/>
   <hyperlinks>
     <hyperlink ref="A4" location="'!!_Schema'!A1" tooltip="Click to view schema" display="'!!_Schema'!A1"/>
     <hyperlink ref="A5" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
     <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
     <hyperlink ref="A7" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A8" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A9" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A8" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A9" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1737,10 +1737,10 @@
         <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.01" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -1775,17 +1775,17 @@
         <v>91</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.01" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>29</v>
@@ -1794,206 +1794,206 @@
         <v>91</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.01" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="15.01" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="15.01" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.01" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.01" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="15.01" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="15.01" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="15.01" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="15.01" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>120</v>
@@ -2163,14 +2163,14 @@
       <c r="G61" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:G61"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
     <hyperlink ref="A7" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
     <hyperlink ref="A12" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A37" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A48" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A37" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A43" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2246,7 +2246,7 @@
       <c r="B12" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
@@ -2344,7 +2344,7 @@
       <c r="C12" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
@@ -2723,7 +2723,7 @@
       <c r="W12" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:W2"/>
   <dataValidations count="23">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
@@ -2797,6 +2797,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.01" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:D2"/>
+  <dataValidations count="4">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;!!Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;!!Reactions:A&quot; or blank." sqref="A3:A12">
+      <formula1>'!!Reactions'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Regulator" error="Value must be a value from &quot;!!Metabolites:A&quot; or blank." promptTitle="Regulator" prompt="Select a value from &quot;!!Metabolites:A&quot; or blank." sqref="B3:B12">
+      <formula1>'!!Metabolites'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Regulator compartment" error="Value must be a value from &quot;!!Compartments:A&quot; or blank." promptTitle="Regulator compartment" prompt="Select a value from &quot;!!Compartments:A&quot; or blank." sqref="C3:C12">
+      <formula1>'!!Compartments'!$A$3:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Type [Ref2, Ref3]" error="Value must be one of &quot;activation&quot;, &quot;competitive inhibition&quot;, &quot;mixed inhibition&quot;." promptTitle="Type [Ref2, Ref3]" prompt="Select one of &quot;activation&quot;, &quot;competitive inhibition&quot;, &quot;mixed inhibition&quot;." sqref="D3:D12">
+      <formula1>"activation,competitive inhibition,mixed inhibition"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2813,7 +2931,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.01" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2829,28 +2947,28 @@
         <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.01" customHeight="1">
@@ -2964,7 +3082,7 @@
       <c r="I12" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
@@ -2997,122 +3115,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:D2"/>
-  <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;!!Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;!!Reactions:A&quot; or blank." sqref="A3:A12">
-      <formula1>'!!Reactions'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Regulator" error="Value must be a value from &quot;!!Metabolites:A&quot; or blank." promptTitle="Regulator" prompt="Select a value from &quot;!!Metabolites:A&quot; or blank." sqref="B3:B12">
-      <formula1>'!!Metabolites'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Regulator compartment" error="Value must be a value from &quot;!!Compartments:A&quot; or blank." promptTitle="Regulator compartment" prompt="Select a value from &quot;!!Compartments:A&quot; or blank." sqref="C3:C12">
-      <formula1>'!!Compartments'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Type [Ref2, Ref3]" error="Value must be one of &quot;activation&quot;, &quot;competitive inhibition&quot;, &quot;mixed inhibition&quot;." promptTitle="Type [Ref2, Ref3]" prompt="Select one of &quot;activation&quot;, &quot;competitive inhibition&quot;, &quot;mixed inhibition&quot;." sqref="D3:D12">
-      <formula1>"activation,competitive inhibition,mixed inhibition"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/examples/kinetic_metabolic_model/template.xlsx
+++ b/examples/kinetic_metabolic_model/template.xlsx
@@ -49,10 +49,10 @@
     <t>'!!References'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.14' date='2020-12-13 14:11:50'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.14' date='2020-12-13 18:32:51'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -85,7 +85,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -451,19 +451,19 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Formula</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -529,7 +529,7 @@
     <t>!Coupled to biomass</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -544,7 +544,7 @@
     <t>!Type [Ref2, Ref3]</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-12-13 14:11:50' objTablesVersion='1.0.14'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-12-13 18:32:51' objTablesVersion='1.0.14'</t>
   </si>
   <si>
     <t>!Title</t>
